--- a/biology/Médecine/Bouche_humaine/Bouche_humaine.xlsx
+++ b/biology/Médecine/Bouche_humaine/Bouche_humaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour l'article plus général sur la bouche des animaux, voir Bouche.
 La bouche ou cavité buccale humaine représente le premier segment du tube digestif. Elle est divisée en deux parties : le vestibule et la cavité buccale proprement dite qui sont séparés par l’arcade dentaire :
@@ -514,7 +526,9 @@
           <t>Limites de la cavité buccale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>en haut : palais osseux et membraneux (le voile du palais et son appendice : la luette) ;
 en bas : langue et plancher buccal ;
@@ -548,7 +562,9 @@
           <t>Les dents</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les arcades dentaires maxillaire et mandibulaire sont composées de 20 dents déciduales pendant l'enfance, puis de 32 à l'âge adulte :
 denture lactéale, par arcade : 4 incisives (centrales et latérales), 2 canines et 4 molaires ;
@@ -580,7 +596,9 @@
           <t>La langue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La langue, organe musculaire, est responsable du goût par l'intermédiaire des papilles gustatives, mais aussi de la phonation et de la bonne mastication du bol alimentaire.
 C'est dans la cavité buccale qu'aboutissent les canaux excréteurs des glandes salivaires principales (parotides, sous-maxillaires, et sublinguales) et accessoires.
@@ -612,20 +630,164 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">alimentation: mastication, sécrétion de salive, entré des aliments dans l'organisme (les bébés naissent avec un réflexe de succion qui disparaît progressivement lorsque l'enfant grandit) ;
-communication : phonation (le sigmatisme nasal est dû à un positionnement de la langue qui rend impossible le passage de l'air par la cavité buccale), communication non verbale : mimique, baisersModèle:Ect
-Microbiote buccal
-Le microbiote oral est principalement constitué de bactéries. Plus de 800 espèces colonisent la muqueuse buccale, 1 300 se partagent la crevasse abritée qui sépare la gencive de la dent, et près de 1 000 constituent le biofilm plus exposé au flux salivaire qu'est la plaque dentaire[1]. La salive est un milieu riche de centaines d'espèces de bactéries, dont la concentration va de 10  à   1 000 millions de germes par millilitre, ce qui explique que lors du baiser amoureux, pas moins de 80 millions de bactéries sont échangés en une dizaine de secondes par le mélange des salives.
-La bouche dans la culture
-Surnoms
-Comme élément essentiel du visage, la bouche est à l'origine de nombreux surnoms : par exemple en Breton[2] Beg Sukr, c'est-à-dire « Bec sucré » ou « Bouche à sucre » ; Beg bleud ou Bouche Farine, surnom de boulanger, etc.
-Médecine
-Les maladies de la bouche sont étudiées par la stomatologie, spécialité médicale s'intéressant aux pathologies de la cavité buccale (pathologie infectieuse (mycoses), tumorale (carcinomes épidermoïdes), traumatologique (ulcérations de la cavité buccale). Elle est fréquemment couplée avec la chirurgie maxillo-faciale et la chirurgie dentaire. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>alimentation: mastication, sécrétion de salive, entré des aliments dans l'organisme (les bébés naissent avec un réflexe de succion qui disparaît progressivement lorsque l'enfant grandit) ;
+communication : phonation (le sigmatisme nasal est dû à un positionnement de la langue qui rend impossible le passage de l'air par la cavité buccale), communication non verbale : mimique, baisersModèle:Ect</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bouche_humaine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouche_humaine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fonctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Microbiote buccal</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le microbiote oral est principalement constitué de bactéries. Plus de 800 espèces colonisent la muqueuse buccale, 1 300 se partagent la crevasse abritée qui sépare la gencive de la dent, et près de 1 000 constituent le biofilm plus exposé au flux salivaire qu'est la plaque dentaire. La salive est un milieu riche de centaines d'espèces de bactéries, dont la concentration va de 10  à   1 000 millions de germes par millilitre, ce qui explique que lors du baiser amoureux, pas moins de 80 millions de bactéries sont échangés en une dizaine de secondes par le mélange des salives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bouche_humaine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouche_humaine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fonctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La bouche dans la culture</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Surnoms</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme élément essentiel du visage, la bouche est à l'origine de nombreux surnoms : par exemple en Breton Beg Sukr, c'est-à-dire « Bec sucré » ou « Bouche à sucre » ; Beg bleud ou Bouche Farine, surnom de boulanger, etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bouche_humaine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouche_humaine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Fonctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les maladies de la bouche sont étudiées par la stomatologie, spécialité médicale s'intéressant aux pathologies de la cavité buccale (pathologie infectieuse (mycoses), tumorale (carcinomes épidermoïdes), traumatologique (ulcérations de la cavité buccale). Elle est fréquemment couplée avec la chirurgie maxillo-faciale et la chirurgie dentaire. 
 La bouche et le plancher buccal peuvent être le siège de tumeur malignes, ou cancers, en particulier de carcinome épidermoïde.
-Divers
-Le sillon qui relie la lèvre supérieure au nez s'appelle philtrum délimité par des crêtes philtrales latéralement et le tubercule labial, en bas, a sa jonction avec la lèvre supérieure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bouche_humaine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouche_humaine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Fonctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sillon qui relie la lèvre supérieure au nez s'appelle philtrum délimité par des crêtes philtrales latéralement et le tubercule labial, en bas, a sa jonction avec la lèvre supérieure.
 </t>
         </is>
       </c>
